--- a/assets/1602.xlsx
+++ b/assets/1602.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Radio\Изготовление ir-station\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RSS 2024\ir-station-hw\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3AE3E-5473-40F1-B505-EBFB1E87F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26387B04-56ED-4ED8-B610-397400EEFF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{5299DC2E-75DF-4FA2-ACA0-132E3D630CE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{5299DC2E-75DF-4FA2-ACA0-132E3D630CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
   <si>
     <t>e</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Power of the top heater, % ↓</t>
   </si>
   <si>
-    <t>Power of the top heater, % ↑</t>
-  </si>
-  <si>
     <t>←Show elapsed time. Rotating the encoder in any direction called the submenu.</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Profile for solder without lead (Pb-)→</t>
+  </si>
+  <si>
+    <t>Power of the bottom heater, % ↑</t>
   </si>
 </sst>
 </file>
@@ -9612,8 +9612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C067DD6-668B-423D-ADC9-7A4C270D4966}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9734,9 +9734,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="S3" s="6"/>
       <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
@@ -10107,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10120,7 +10118,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -10222,7 +10220,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V21" s="38"/>
       <c r="W21" s="38"/>
@@ -10364,7 +10362,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
@@ -10473,7 +10471,7 @@
     </row>
     <row r="33" spans="3:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C33" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -10507,7 +10505,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="6">
         <v>0</v>
@@ -10521,12 +10519,12 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="3:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C34" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -10558,7 +10556,7 @@
         <v>10</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -10572,7 +10570,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -10592,8 +10590,8 @@
   </sheetPr>
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC56" sqref="B1:AC56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11875,7 +11873,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE55" sqref="AE55"/>
     </sheetView>
   </sheetViews>
